--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.09204481936561</v>
+        <v>2.931376</v>
       </c>
       <c r="H2">
-        <v>2.09204481936561</v>
+        <v>8.794128000000001</v>
       </c>
       <c r="I2">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="J2">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N2">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O2">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P2">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q2">
-        <v>254.5914378812425</v>
+        <v>371.288541454656</v>
       </c>
       <c r="R2">
-        <v>254.5914378812425</v>
+        <v>3341.596873091904</v>
       </c>
       <c r="S2">
-        <v>0.09820684346757251</v>
+        <v>0.1219111517426267</v>
       </c>
       <c r="T2">
-        <v>0.09820684346757251</v>
+        <v>0.1219111517426267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.09204481936561</v>
+        <v>2.931376</v>
       </c>
       <c r="H3">
-        <v>2.09204481936561</v>
+        <v>8.794128000000001</v>
       </c>
       <c r="I3">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="J3">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N3">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O3">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P3">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q3">
-        <v>0.4898640616086601</v>
+        <v>0.7316216162079999</v>
       </c>
       <c r="R3">
-        <v>0.4898640616086601</v>
+        <v>6.584594545871999</v>
       </c>
       <c r="S3">
-        <v>0.0001889615912426387</v>
+        <v>0.0002402251185083019</v>
       </c>
       <c r="T3">
-        <v>0.0001889615912426387</v>
+        <v>0.0002402251185083019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.09204481936561</v>
+        <v>2.931376</v>
       </c>
       <c r="H4">
-        <v>2.09204481936561</v>
+        <v>8.794128000000001</v>
       </c>
       <c r="I4">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="J4">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N4">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O4">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P4">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q4">
-        <v>1.95740922991163</v>
+        <v>3.074790639424001</v>
       </c>
       <c r="R4">
-        <v>1.95740922991163</v>
+        <v>27.67311575481601</v>
       </c>
       <c r="S4">
-        <v>0.0007550567428492303</v>
+        <v>0.001009595574242645</v>
       </c>
       <c r="T4">
-        <v>0.0007550567428492303</v>
+        <v>0.001009595574242645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.09204481936561</v>
+        <v>2.931376</v>
       </c>
       <c r="H5">
-        <v>2.09204481936561</v>
+        <v>8.794128000000001</v>
       </c>
       <c r="I5">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="J5">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N5">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O5">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P5">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q5">
-        <v>2.999740981624514</v>
+        <v>4.463616983578667</v>
       </c>
       <c r="R5">
-        <v>2.999740981624514</v>
+        <v>40.172552852208</v>
       </c>
       <c r="S5">
-        <v>0.001157128831500919</v>
+        <v>0.001465611314785165</v>
       </c>
       <c r="T5">
-        <v>0.001157128831500919</v>
+        <v>0.001465611314785165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.09204481936561</v>
+        <v>2.931376</v>
       </c>
       <c r="H6">
-        <v>2.09204481936561</v>
+        <v>8.794128000000001</v>
       </c>
       <c r="I6">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="J6">
-        <v>0.1008523851666601</v>
+        <v>0.1253619302628033</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N6">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O6">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P6">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q6">
-        <v>1.411288482180887</v>
+        <v>2.239546835866667</v>
       </c>
       <c r="R6">
-        <v>1.411288482180887</v>
+        <v>20.1559215228</v>
       </c>
       <c r="S6">
-        <v>0.0005443945334947882</v>
+        <v>0.0007353465126405048</v>
       </c>
       <c r="T6">
-        <v>0.0005443945334947882</v>
+        <v>0.0007353465126405047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.17142555106476</v>
+        <v>5.220282666666667</v>
       </c>
       <c r="H7">
-        <v>5.17142555106476</v>
+        <v>15.660848</v>
       </c>
       <c r="I7">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="J7">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N7">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O7">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P7">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q7">
-        <v>629.3367401854322</v>
+        <v>661.201816924096</v>
       </c>
       <c r="R7">
-        <v>629.3367401854322</v>
+        <v>5950.816352316863</v>
       </c>
       <c r="S7">
-        <v>0.2427621888863871</v>
+        <v>0.21710305068862</v>
       </c>
       <c r="T7">
-        <v>0.2427621888863871</v>
+        <v>0.21710305068862</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.17142555106476</v>
+        <v>5.220282666666667</v>
       </c>
       <c r="H8">
-        <v>5.17142555106476</v>
+        <v>15.660848</v>
       </c>
       <c r="I8">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="J8">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N8">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O8">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P8">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q8">
-        <v>1.210918380572545</v>
+        <v>1.302893808794667</v>
       </c>
       <c r="R8">
-        <v>1.210918380572545</v>
+        <v>11.726044279152</v>
       </c>
       <c r="S8">
-        <v>0.0004671031863544693</v>
+        <v>0.000427800126031882</v>
       </c>
       <c r="T8">
-        <v>0.0004671031863544693</v>
+        <v>0.000427800126031882</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.17142555106476</v>
+        <v>5.220282666666667</v>
       </c>
       <c r="H9">
-        <v>5.17142555106476</v>
+        <v>15.660848</v>
       </c>
       <c r="I9">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="J9">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N9">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O9">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P9">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q9">
-        <v>4.838613404336417</v>
+        <v>5.475679775850668</v>
       </c>
       <c r="R9">
-        <v>4.838613404336417</v>
+        <v>49.28111798265601</v>
       </c>
       <c r="S9">
-        <v>0.001866460840766455</v>
+        <v>0.001797918205157667</v>
       </c>
       <c r="T9">
-        <v>0.001866460840766455</v>
+        <v>0.001797918205157667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.17142555106476</v>
+        <v>5.220282666666667</v>
       </c>
       <c r="H10">
-        <v>5.17142555106476</v>
+        <v>15.660848</v>
       </c>
       <c r="I10">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="J10">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N10">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O10">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P10">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q10">
-        <v>7.415203066085949</v>
+        <v>7.948943557569778</v>
       </c>
       <c r="R10">
-        <v>7.415203066085949</v>
+        <v>71.54049201812799</v>
       </c>
       <c r="S10">
-        <v>0.002860362048511058</v>
+        <v>0.002610004769993184</v>
       </c>
       <c r="T10">
-        <v>0.002860362048511058</v>
+        <v>0.002610004769993185</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.17142555106476</v>
+        <v>5.220282666666667</v>
       </c>
       <c r="H11">
-        <v>5.17142555106476</v>
+        <v>15.660848</v>
       </c>
       <c r="I11">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="J11">
-        <v>0.2493018298216217</v>
+        <v>0.2232483010063491</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N11">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O11">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P11">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q11">
-        <v>3.488631433282005</v>
+        <v>3.988252454977778</v>
       </c>
       <c r="R11">
-        <v>3.488631433282005</v>
+        <v>35.89427209479999</v>
       </c>
       <c r="S11">
-        <v>0.001345714859602595</v>
+        <v>0.00130952721654643</v>
       </c>
       <c r="T11">
-        <v>0.001345714859602595</v>
+        <v>0.00130952721654643</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.67110053057091</v>
+        <v>6.882553333333334</v>
       </c>
       <c r="H12">
-        <v>6.67110053057091</v>
+        <v>20.64766</v>
       </c>
       <c r="I12">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="J12">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N12">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O12">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P12">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q12">
-        <v>811.8397180627281</v>
+        <v>871.7452788783199</v>
       </c>
       <c r="R12">
-        <v>811.8397180627281</v>
+        <v>7845.70750990488</v>
       </c>
       <c r="S12">
-        <v>0.3131614196300458</v>
+        <v>0.2862341793740282</v>
       </c>
       <c r="T12">
-        <v>0.3131614196300458</v>
+        <v>0.2862341793740282</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.67110053057091</v>
+        <v>6.882553333333334</v>
       </c>
       <c r="H13">
-        <v>6.67110053057091</v>
+        <v>20.64766</v>
       </c>
       <c r="I13">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="J13">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N13">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O13">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P13">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q13">
-        <v>1.562075712267063</v>
+        <v>1.717768308593333</v>
       </c>
       <c r="R13">
-        <v>1.562075712267063</v>
+        <v>15.45991477734</v>
       </c>
       <c r="S13">
-        <v>0.0006025596392234789</v>
+        <v>0.0005640225580545477</v>
       </c>
       <c r="T13">
-        <v>0.0006025596392234789</v>
+        <v>0.0005640225580545478</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.67110053057091</v>
+        <v>6.882553333333334</v>
       </c>
       <c r="H14">
-        <v>6.67110053057091</v>
+        <v>20.64766</v>
       </c>
       <c r="I14">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="J14">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N14">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O14">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P14">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q14">
-        <v>6.241775334511042</v>
+        <v>7.219275372613335</v>
       </c>
       <c r="R14">
-        <v>6.241775334511042</v>
+        <v>64.97347835352001</v>
       </c>
       <c r="S14">
-        <v>0.002407720614398728</v>
+        <v>0.002370421053055732</v>
       </c>
       <c r="T14">
-        <v>0.002407720614398728</v>
+        <v>0.002370421053055732</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.67110053057091</v>
+        <v>6.882553333333334</v>
       </c>
       <c r="H15">
-        <v>6.67110053057091</v>
+        <v>20.64766</v>
       </c>
       <c r="I15">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="J15">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N15">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O15">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P15">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q15">
-        <v>9.565556850813021</v>
+        <v>10.48008919669556</v>
       </c>
       <c r="R15">
-        <v>9.565556850813021</v>
+        <v>94.32080277026002</v>
       </c>
       <c r="S15">
-        <v>0.003689845786432759</v>
+        <v>0.003441096618088463</v>
       </c>
       <c r="T15">
-        <v>0.003689845786432759</v>
+        <v>0.003441096618088464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.67110053057091</v>
+        <v>6.882553333333334</v>
       </c>
       <c r="H16">
-        <v>6.67110053057091</v>
+        <v>20.64766</v>
       </c>
       <c r="I16">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="J16">
-        <v>0.3215975078386065</v>
+        <v>0.2943362335651782</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N16">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O16">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P16">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q16">
-        <v>4.500308623942617</v>
+        <v>5.258213392055556</v>
       </c>
       <c r="R16">
-        <v>4.500308623942617</v>
+        <v>47.3239205285</v>
       </c>
       <c r="S16">
-        <v>0.001735962168505673</v>
+        <v>0.001726513961951298</v>
       </c>
       <c r="T16">
-        <v>0.001735962168505673</v>
+        <v>0.001726513961951298</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.0509752401671</v>
+        <v>5.259310999999999</v>
       </c>
       <c r="H17">
-        <v>4.0509752401671</v>
+        <v>15.777933</v>
       </c>
       <c r="I17">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="J17">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N17">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O17">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P17">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q17">
-        <v>492.9835162557356</v>
+        <v>666.1451517125158</v>
       </c>
       <c r="R17">
-        <v>492.9835162557356</v>
+        <v>5995.306365412644</v>
       </c>
       <c r="S17">
-        <v>0.190164898772456</v>
+        <v>0.2187261754830038</v>
       </c>
       <c r="T17">
-        <v>0.190164898772456</v>
+        <v>0.2187261754830039</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.0509752401671</v>
+        <v>5.259310999999999</v>
       </c>
       <c r="H18">
-        <v>4.0509752401671</v>
+        <v>15.777933</v>
       </c>
       <c r="I18">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="J18">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N18">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O18">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P18">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q18">
-        <v>0.9485586380630837</v>
+        <v>1.312634617313</v>
       </c>
       <c r="R18">
-        <v>0.9485586380630837</v>
+        <v>11.813711555817</v>
       </c>
       <c r="S18">
-        <v>0.0003658997744123993</v>
+        <v>0.0004309984827081259</v>
       </c>
       <c r="T18">
-        <v>0.0003658997744123993</v>
+        <v>0.000430998482708126</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.0509752401671</v>
+        <v>5.259310999999999</v>
       </c>
       <c r="H19">
-        <v>4.0509752401671</v>
+        <v>15.777933</v>
       </c>
       <c r="I19">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="J19">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N19">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O19">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P19">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q19">
-        <v>3.790270768506324</v>
+        <v>5.516617531364</v>
       </c>
       <c r="R19">
-        <v>3.790270768506324</v>
+        <v>49.64955778227601</v>
       </c>
       <c r="S19">
-        <v>0.001462070096151655</v>
+        <v>0.001811359958315023</v>
       </c>
       <c r="T19">
-        <v>0.001462070096151655</v>
+        <v>0.001811359958315023</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.0509752401671</v>
+        <v>5.259310999999999</v>
       </c>
       <c r="H20">
-        <v>4.0509752401671</v>
+        <v>15.777933</v>
       </c>
       <c r="I20">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="J20">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N20">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O20">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P20">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q20">
-        <v>5.808611904959275</v>
+        <v>8.008372143840333</v>
       </c>
       <c r="R20">
-        <v>5.808611904959275</v>
+        <v>72.075349294563</v>
       </c>
       <c r="S20">
-        <v>0.002240630890267038</v>
+        <v>0.002629517915673076</v>
       </c>
       <c r="T20">
-        <v>0.002240630890267038</v>
+        <v>0.002629517915673077</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.0509752401671</v>
+        <v>5.259310999999999</v>
       </c>
       <c r="H21">
-        <v>4.0509752401671</v>
+        <v>15.777933</v>
       </c>
       <c r="I21">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="J21">
-        <v>0.1952876494041003</v>
+        <v>0.2249173694580273</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N21">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O21">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P21">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q21">
-        <v>2.73277830624175</v>
+        <v>4.018069776408333</v>
       </c>
       <c r="R21">
-        <v>2.73277830624175</v>
+        <v>36.16262798767499</v>
       </c>
       <c r="S21">
-        <v>0.001054149870813211</v>
+        <v>0.001319317618327313</v>
       </c>
       <c r="T21">
-        <v>0.001054149870813211</v>
+        <v>0.001319317618327313</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.75808640563232</v>
+        <v>3.08978</v>
       </c>
       <c r="H22">
-        <v>2.75808640563232</v>
+        <v>9.26934</v>
       </c>
       <c r="I22">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="J22">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.695020835378</v>
+        <v>126.660156</v>
       </c>
       <c r="N22">
-        <v>121.695020835378</v>
+        <v>379.980468</v>
       </c>
       <c r="O22">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029194</v>
       </c>
       <c r="P22">
-        <v>0.9737681791589184</v>
+        <v>0.9724734733029196</v>
       </c>
       <c r="Q22">
-        <v>335.6453825991981</v>
+        <v>391.3520168056799</v>
       </c>
       <c r="R22">
-        <v>335.6453825991981</v>
+        <v>3522.16815125112</v>
       </c>
       <c r="S22">
-        <v>0.1294728284024571</v>
+        <v>0.1284989160146406</v>
       </c>
       <c r="T22">
-        <v>0.1294728284024571</v>
+        <v>0.1284989160146406</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.75808640563232</v>
+        <v>3.08978</v>
       </c>
       <c r="H23">
-        <v>2.75808640563232</v>
+        <v>9.26934</v>
       </c>
       <c r="I23">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="J23">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2341556247142</v>
+        <v>0.249583</v>
       </c>
       <c r="N23">
-        <v>0.2341556247142</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O23">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="P23">
-        <v>0.001873645238338952</v>
+        <v>0.001916252549754972</v>
       </c>
       <c r="Q23">
-        <v>0.6458214453265784</v>
+        <v>0.7711565617399998</v>
       </c>
       <c r="R23">
-        <v>0.6458214453265784</v>
+        <v>6.940409055659999</v>
       </c>
       <c r="S23">
-        <v>0.0002491210471059664</v>
+        <v>0.0002532062644521142</v>
       </c>
       <c r="T23">
-        <v>0.0002491210471059664</v>
+        <v>0.0002532062644521143</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.75808640563232</v>
+        <v>3.08978</v>
       </c>
       <c r="H24">
-        <v>2.75808640563232</v>
+        <v>9.26934</v>
       </c>
       <c r="I24">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="J24">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.93564402243791</v>
+        <v>1.048924</v>
       </c>
       <c r="N24">
-        <v>0.93564402243791</v>
+        <v>3.146772</v>
       </c>
       <c r="O24">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="P24">
-        <v>0.007486751469501565</v>
+        <v>0.008053446306435876</v>
       </c>
       <c r="Q24">
-        <v>2.580587058797141</v>
+        <v>3.24094439672</v>
       </c>
       <c r="R24">
-        <v>2.580587058797141</v>
+        <v>29.16849957048</v>
       </c>
       <c r="S24">
-        <v>0.0009954431753354978</v>
+        <v>0.001064151515664807</v>
       </c>
       <c r="T24">
-        <v>0.0009954431753354978</v>
+        <v>0.001064151515664807</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.75808640563232</v>
+        <v>3.08978</v>
       </c>
       <c r="H25">
-        <v>2.75808640563232</v>
+        <v>9.26934</v>
       </c>
       <c r="I25">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="J25">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.43387988338326</v>
+        <v>1.522703666666667</v>
       </c>
       <c r="N25">
-        <v>1.43387988338326</v>
+        <v>4.568111</v>
       </c>
       <c r="O25">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="P25">
-        <v>0.01147348998825111</v>
+        <v>0.01169103978945379</v>
       </c>
       <c r="Q25">
-        <v>3.954764613669026</v>
+        <v>4.704819335193333</v>
       </c>
       <c r="R25">
-        <v>3.954764613669026</v>
+        <v>42.34337401674</v>
       </c>
       <c r="S25">
-        <v>0.001525522431539336</v>
+        <v>0.001544809170913901</v>
       </c>
       <c r="T25">
-        <v>0.001525522431539336</v>
+        <v>0.001544809170913901</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.75808640563232</v>
+        <v>3.08978</v>
       </c>
       <c r="H26">
-        <v>2.75808640563232</v>
+        <v>9.26934</v>
       </c>
       <c r="I26">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="J26">
-        <v>0.1329606277690115</v>
+        <v>0.1321361657076419</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.674597632477513</v>
+        <v>0.7639916666666666</v>
       </c>
       <c r="N26">
-        <v>0.674597632477513</v>
+        <v>2.291975</v>
       </c>
       <c r="O26">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="P26">
-        <v>0.005397934144989907</v>
+        <v>0.005865788051435999</v>
       </c>
       <c r="Q26">
-        <v>1.860598559407977</v>
+        <v>2.360566171833333</v>
       </c>
       <c r="R26">
-        <v>1.860598559407977</v>
+        <v>21.2450955465</v>
       </c>
       <c r="S26">
-        <v>0.0007177127125736406</v>
+        <v>0.000775082741970453</v>
       </c>
       <c r="T26">
-        <v>0.0007177127125736406</v>
+        <v>0.000775082741970453</v>
       </c>
     </row>
   </sheetData>
